--- a/job_questions/1B2A5678.xlsx
+++ b/job_questions/1B2A5678.xlsx
@@ -14,18 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>Senior Seibel Developer</t>
+  </si>
   <si>
     <t>Questions</t>
   </si>
   <si>
-    <t>Skill1</t>
-  </si>
-  <si>
-    <t>Skill2</t>
-  </si>
-  <si>
-    <t>Skill3</t>
+    <t>Mandatory Skilltype 1</t>
+  </si>
+  <si>
+    <t>Mandatory Skilltype 2</t>
+  </si>
+  <si>
+    <t>Mandatory Skilltype 3</t>
   </si>
   <si>
     <t>What Is The Prodecure?</t>
@@ -75,9 +78,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -90,6 +93,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -106,6 +117,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -114,14 +132,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,29 +155,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,6 +176,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -197,7 +215,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -205,13 +223,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -220,28 +231,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,37 +259,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,161 +439,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,15 +475,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color theme="5"/>
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="5"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color theme="5"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,23 +532,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="5"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="5"/>
-      </right>
-      <top style="thin">
-        <color theme="5"/>
-      </top>
-      <bottom style="thin">
-        <color theme="5"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,234 +563,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1076,84 +1035,94 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:XFD7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="3" width="20.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" ht="20.55" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="3:3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/job_questions/1B2A5678.xlsx
+++ b/job_questions/1B2A5678.xlsx
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -108,6 +108,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -116,15 +138,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,31 +148,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,16 +170,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,16 +207,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,7 +231,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,19 +259,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,163 +385,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,24 +477,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,13 +525,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,8 +543,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,148 +566,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:XFD7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>

--- a/job_questions/1B2A5678.xlsx
+++ b/job_questions/1B2A5678.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MSRIT\Projects and codes\Volvo\Valunique-Backend\job_questions\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C311F4F-8EC4-41A7-9652-38DE3EA1DACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="16608" windowHeight="7175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,6 +31,9 @@
     <t>Mandatory Skilltype 3</t>
   </si>
   <si>
+    <t>List out some of your major achievements in your IT experience(Any 2 or 3).</t>
+  </si>
+  <si>
     <t>Python</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
     <t>React</t>
   </si>
   <si>
+    <t>What was the toughest challenge you have ever faced in your career &amp; how did you overcome it.</t>
+  </si>
+  <si>
     <t>Java</t>
   </si>
   <si>
@@ -55,31 +55,25 @@
     <t>Angular</t>
   </si>
   <si>
+    <t>Share your experience when you learnt a new skill and implemented in your project.</t>
+  </si>
+  <si>
     <t>Node</t>
   </si>
   <si>
     <t>MongoDB</t>
   </si>
   <si>
+    <t>What is the recent skill you learnt in last 6 months?</t>
+  </si>
+  <si>
     <t>SQLlite</t>
   </si>
   <si>
+    <t>What are your short &amp; Long Term goals in your IT career?</t>
+  </si>
+  <si>
     <t>Oracle</t>
-  </si>
-  <si>
-    <t>List out some of your major achievements in your IT experience(Any 2 or 3).</t>
-  </si>
-  <si>
-    <t>What was the toughest challenge you have ever faced in your career &amp; how did you overcome it.</t>
-  </si>
-  <si>
-    <t>Share your experience when you learnt a new skill and implemented in your project.</t>
-  </si>
-  <si>
-    <t>What is the recent skill you learnt in last 6 months?</t>
-  </si>
-  <si>
-    <t>What are your short &amp; Long Term goals in your IT career?</t>
   </si>
   <si>
     <t>List out the certifications you have completed in your career.</t>
@@ -100,20 +94,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,7 +114,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,11 +122,154 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,8 +282,194 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -177,32 +499,305 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -460,120 +1055,120 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:XFD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="84.6328125" customWidth="1"/>
-    <col min="2" max="3" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="84.6296296296296" customWidth="1"/>
+    <col min="2" max="3" width="20.5462962962963" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="19.5">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="20.55" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -583,5 +1178,6 @@
     <mergeCell ref="A1:XFD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/job_questions/1B2A5678.xlsx
+++ b/job_questions/1B2A5678.xlsx
@@ -96,12 +96,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,9 +127,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,33 +164,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,24 +180,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +195,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -227,6 +235,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -234,22 +249,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,13 +257,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,187 +277,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,17 +493,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,22 +519,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,151 +572,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -741,7 +734,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1064,7 +1057,7 @@
   <dimension ref="A1:XFD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="A12" sqref="A4:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4"/>
